--- a/AnswerScanner.WPF/QuestionnairesExportTemplate.xlsx
+++ b/AnswerScanner.WPF/QuestionnairesExportTemplate.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrey\Desktop\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\AnswerScanner\AnswerScanner.WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBC412F-36AB-4D07-861D-A8A164CD4DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A920C-37F0-49D6-BCD0-9F8795344ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Опросники" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AnswerIndexes">Лист1!$A$3:$B$4</definedName>
-    <definedName name="Questionnaires">Лист1!$B$1:$B$2</definedName>
+    <definedName name="AnswerIndexes">Опросники!$B$1</definedName>
+    <definedName name="Questionnaires">Опросники!$A$2:$B$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,12 +44,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,9 +106,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -103,9 +117,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -116,16 +128,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,19 +441,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
